--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.30days.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.30days.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.30days</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0400075032496</v>
+        <v>1.34745908919635</v>
       </c>
       <c r="E2" t="n">
-        <v>0.397085859871247</v>
+        <v>0.424795046279012</v>
       </c>
       <c r="F2" t="n">
-        <v>2.82923824275262</v>
+        <v>3.84763659816062</v>
       </c>
       <c r="G2" t="n">
-        <v>1.29916170986195</v>
+        <v>1.67340554500438</v>
       </c>
       <c r="H2" t="n">
-        <v>6.16134925582473</v>
+        <v>8.84681387348115</v>
       </c>
       <c r="I2" t="n">
-        <v>2.61909981782482</v>
+        <v>3.17202166315123</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00881621460962504</v>
+        <v>0.00151381714207261</v>
       </c>
       <c r="K2" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L2" t="n">
         <v>32</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.818453682509785</v>
+        <v>1.16724283964527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.414226803970527</v>
+        <v>0.418059106149549</v>
       </c>
       <c r="F3" t="n">
-        <v>2.26699163701704</v>
+        <v>3.21312132360115</v>
       </c>
       <c r="G3" t="n">
-        <v>1.00659077089676</v>
+        <v>1.41601557087562</v>
       </c>
       <c r="H3" t="n">
-        <v>5.10560123427985</v>
+        <v>7.29098524940393</v>
       </c>
       <c r="I3" t="n">
-        <v>1.97585881614754</v>
+        <v>2.79205218227616</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0481707697543937</v>
+        <v>0.00523749089470836</v>
       </c>
       <c r="K3" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L3" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="n">
+        <v>-0.0678094579469317</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.579574510320059</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.934438506446785</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.300059197685348</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.91001018821006</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.116998689106402</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.906861092289218</v>
+      </c>
+      <c r="K4" t="n">
+        <v>493</v>
+      </c>
+      <c r="L4" t="n">
         <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17359151635151</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.837039219493723</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.23358528289903</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.626876734195514</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.6796328710456</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.4020747045298</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.160892939818379</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1027</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>63.6001260805684</v>
+        <v>1.10546122275982</v>
       </c>
       <c r="E5" t="n">
-        <v>1448.05651790932</v>
+        <v>0.446587176506691</v>
       </c>
       <c r="F5" t="n">
-        <v>4180072411571889957131780096</v>
+        <v>3.02061732503239</v>
       </c>
       <c r="G5" t="n">
+        <v>1.25878926323529</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.24833718460175</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4753537067656</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.013310428009947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.924775855993484</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.443385308912267</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.52130306204764</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.05732343189811</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.01232218913255</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.08571605194179</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0370043515312526</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.462099695870797</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.622962571046731</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.58740355291656</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.468177892372908</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.38224909988921</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.741777624126526</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.458222079798769</v>
+      </c>
+      <c r="K7" t="n">
+        <v>493</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.16987216279731</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.874703845602647</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.22158077432883</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.580104293873301</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.8908909917359</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.33744943351803</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.181075977622402</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.98230046039678</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.10915521576149</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.25942380799215</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.825600926124824</v>
+      </c>
+      <c r="H9" t="n">
+        <v>63.8313649566759</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.78721646188701</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.073902509662866</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.12174461052695</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.23135982374534</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.325711059713317</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0291526382269638</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.63904266892215</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.910980355940977</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.362305724141779</v>
+      </c>
+      <c r="K10" t="n">
+        <v>493</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.4935784085021</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1719.22673097905</v>
+      </c>
+      <c r="F11" t="n">
+        <v>463724884771023005679616</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="e">
+      <c r="H11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.0439210246934238</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.96496735618877</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1027</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="I11" t="n">
+        <v>0.0316965630109006</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.974714035831114</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L11" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.4330043812754</v>
+      </c>
+      <c r="E12" t="n">
+        <v>536.750098063802</v>
+      </c>
+      <c r="F12" t="n">
+        <v>160567983869854983651328</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0995491283076094</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.920702282837156</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.9249999162542</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46394.8743112099</v>
+      </c>
+      <c r="F13" t="n">
+        <v>66802070749.6082</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.000537236069421398</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.999571347655322</v>
+      </c>
+      <c r="K13" t="n">
+        <v>493</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
